--- a/config_Release/fish3d_map_config.xlsx
+++ b/config_Release/fish3d_map_config.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="config|鱼的图鉴配置" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -739,10 +739,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>变异的巨型乌贼，触手的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1044,6 +1040,10 @@
   </si>
   <si>
     <t>最高800倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异的巨型乌贼，触手的拍击可以将万物粉碎。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1492,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1566,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>76</v>
@@ -1604,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>48</v>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>49</v>
@@ -1718,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>50</v>
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>10</v>
@@ -1778,7 +1778,7 @@
         <v>95</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N7" s="2"/>
     </row>
@@ -1794,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>51</v>
@@ -1832,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>52</v>
@@ -1871,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>53</v>
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>77</v>
@@ -1947,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>78</v>
@@ -1986,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>54</v>
@@ -2025,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>79</v>
@@ -2251,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>11</v>
@@ -2288,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>82</v>
@@ -2304,7 +2304,7 @@
         <v>41</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>109</v>
@@ -2333,7 +2333,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>56</v>
@@ -2377,7 +2377,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>83</v>
@@ -2393,7 +2393,7 @@
         <v>41</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>111</v>
@@ -2421,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>84</v>
@@ -2437,13 +2437,13 @@
         <v>41</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>112</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2465,7 +2465,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>57</v>
@@ -2481,13 +2481,13 @@
         <v>41</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>113</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2509,7 +2509,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>58</v>
@@ -2553,7 +2553,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>59</v>
@@ -2569,7 +2569,7 @@
         <v>43</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>115</v>
@@ -2598,7 +2598,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>45</v>
@@ -2614,7 +2614,7 @@
         <v>41</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>116</v>
@@ -2642,7 +2642,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>150</v>
@@ -2679,7 +2679,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>61</v>
@@ -2723,7 +2723,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>62</v>
@@ -2767,10 +2767,10 @@
         <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>160</v>
@@ -2789,7 +2789,7 @@
         <v>120</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -2803,7 +2803,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>64</v>
@@ -2839,7 +2839,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>85</v>
@@ -2875,13 +2875,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>86</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="5">
@@ -2911,13 +2911,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>65</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="5">
@@ -2933,7 +2933,7 @@
         <v>123</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -2947,13 +2947,13 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>87</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="5">
@@ -2983,7 +2983,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>67</v>
@@ -3003,7 +3003,7 @@
         <v>125</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -3017,7 +3017,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>88</v>
@@ -3033,13 +3033,13 @@
         <v>43</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>14</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -3053,13 +3053,13 @@
         <v>2</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="5">
@@ -3069,7 +3069,7 @@
         <v>43</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>126</v>
@@ -3089,7 +3089,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>89</v>
@@ -3105,7 +3105,7 @@
         <v>43</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>127</v>
@@ -3125,7 +3125,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>68</v>
@@ -3141,7 +3141,7 @@
         <v>43</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>128</v>
@@ -3161,7 +3161,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>69</v>
@@ -3175,7 +3175,7 @@
         <v>43</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>129</v>
@@ -3195,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>162</v>
@@ -3211,7 +3211,7 @@
         <v>43</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>130</v>
@@ -3232,7 +3232,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>71</v>
@@ -3246,7 +3246,7 @@
         <v>43</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>131</v>
@@ -3266,7 +3266,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>72</v>
@@ -3280,13 +3280,13 @@
         <v>41</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>132</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -3300,7 +3300,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>73</v>
@@ -3316,7 +3316,7 @@
         <v>43</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>133</v>
@@ -3337,7 +3337,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>75</v>
@@ -3353,7 +3353,7 @@
         <v>43</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>134</v>
@@ -3373,7 +3373,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>173</v>
@@ -3389,7 +3389,7 @@
         <v>43</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K49" s="12" t="s">
         <v>135</v>
@@ -3409,10 +3409,10 @@
         <v>2</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>157</v>
@@ -3425,13 +3425,13 @@
         <v>43</v>
       </c>
       <c r="J50" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="L50" s="18" t="s">
         <v>259</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="L50" s="18" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -3445,7 +3445,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>39</v>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L51" s="18" t="s">
         <v>40</v>

--- a/config_Release/fish3d_map_config.xlsx
+++ b/config_Release/fish3d_map_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="263">
   <si>
     <t>line|行号</t>
   </si>
@@ -653,10 +653,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2,3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>远古龙龟</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1044,6 +1040,22 @@
   </si>
   <si>
     <t>变异的巨型乌贼，触手的拍击可以将万物粉碎。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1492,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1566,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>76</v>
@@ -1588,7 +1600,7 @@
         <v>90</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N2" s="2"/>
     </row>
@@ -1604,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>48</v>
@@ -1664,7 +1676,7 @@
         <v>92</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N4" s="2"/>
     </row>
@@ -1680,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>49</v>
@@ -1718,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>50</v>
@@ -1756,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>10</v>
@@ -1778,7 +1790,7 @@
         <v>95</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N7" s="2"/>
     </row>
@@ -1794,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>51</v>
@@ -1832,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>52</v>
@@ -1854,7 +1866,7 @@
         <v>97</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="2"/>
@@ -1871,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>53</v>
@@ -1893,7 +1905,7 @@
         <v>98</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N10" s="2"/>
     </row>
@@ -1909,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>77</v>
@@ -1947,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>78</v>
@@ -1969,7 +1981,7 @@
         <v>100</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="2"/>
@@ -1986,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>54</v>
@@ -2008,7 +2020,7 @@
         <v>101</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="2"/>
@@ -2025,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>79</v>
@@ -2085,7 +2097,7 @@
         <v>103</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N15" s="2"/>
     </row>
@@ -2251,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>11</v>
@@ -2288,7 +2300,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>82</v>
@@ -2304,7 +2316,7 @@
         <v>41</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>109</v>
@@ -2333,7 +2345,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>56</v>
@@ -2377,13 +2389,13 @@
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>83</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>47</v>
+        <v>260</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="5">
@@ -2393,13 +2405,13 @@
         <v>41</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>111</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2421,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>84</v>
@@ -2437,13 +2449,13 @@
         <v>41</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>112</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2465,13 +2477,13 @@
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>47</v>
+        <v>259</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="5">
@@ -2481,13 +2493,13 @@
         <v>41</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>113</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2509,13 +2521,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="5">
@@ -2525,7 +2537,7 @@
         <v>41</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>114</v>
@@ -2553,7 +2565,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>59</v>
@@ -2569,7 +2581,7 @@
         <v>43</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>115</v>
@@ -2598,13 +2610,13 @@
         <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="5">
@@ -2614,13 +2626,13 @@
         <v>41</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>116</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2642,7 +2654,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>150</v>
@@ -2679,7 +2691,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>61</v>
@@ -2701,7 +2713,7 @@
         <v>118</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2723,7 +2735,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>62</v>
@@ -2767,10 +2779,10 @@
         <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>160</v>
@@ -2789,7 +2801,7 @@
         <v>120</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -2803,7 +2815,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>64</v>
@@ -2825,7 +2837,7 @@
         <v>121</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -2839,7 +2851,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>85</v>
@@ -2875,13 +2887,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>86</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="5">
@@ -2897,7 +2909,7 @@
         <v>122</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -2911,13 +2923,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>65</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="5">
@@ -2933,7 +2945,7 @@
         <v>123</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -2947,13 +2959,13 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>87</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="5">
@@ -2969,7 +2981,7 @@
         <v>124</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -2983,7 +2995,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>67</v>
@@ -3003,7 +3015,7 @@
         <v>125</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -3017,7 +3029,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>88</v>
@@ -3033,13 +3045,13 @@
         <v>43</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>14</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -3053,13 +3065,13 @@
         <v>2</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="5">
@@ -3069,13 +3081,13 @@
         <v>43</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>126</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -3089,7 +3101,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>89</v>
@@ -3105,7 +3117,7 @@
         <v>43</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>127</v>
@@ -3125,7 +3137,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>68</v>
@@ -3141,13 +3153,13 @@
         <v>43</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>128</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -3161,7 +3173,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>69</v>
@@ -3175,13 +3187,13 @@
         <v>43</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>129</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -3195,10 +3207,10 @@
         <v>2</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>156</v>
@@ -3211,13 +3223,13 @@
         <v>43</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>130</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M44" s="18"/>
     </row>
@@ -3232,7 +3244,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>71</v>
@@ -3246,13 +3258,13 @@
         <v>43</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>131</v>
       </c>
       <c r="L45" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -3266,7 +3278,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>72</v>
@@ -3280,13 +3292,13 @@
         <v>41</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>132</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -3300,7 +3312,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>73</v>
@@ -3316,13 +3328,13 @@
         <v>43</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>133</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M47" s="8"/>
     </row>
@@ -3337,7 +3349,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>75</v>
@@ -3353,7 +3365,7 @@
         <v>43</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>134</v>
@@ -3373,10 +3385,10 @@
         <v>2</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>151</v>
@@ -3389,13 +3401,13 @@
         <v>43</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K49" s="12" t="s">
         <v>135</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -3409,10 +3421,10 @@
         <v>2</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>157</v>
@@ -3425,13 +3437,13 @@
         <v>43</v>
       </c>
       <c r="J50" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="L50" s="18" t="s">
         <v>258</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="L50" s="18" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -3445,7 +3457,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>39</v>
@@ -3460,7 +3472,7 @@
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L51" s="18" t="s">
         <v>40</v>

--- a/config_Release/fish3d_map_config.xlsx
+++ b/config_Release/fish3d_map_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="273">
   <si>
     <t>line|行号</t>
   </si>
@@ -1056,6 +1056,46 @@
   </si>
   <si>
     <t>4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.6,-2.5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2.6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5,50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos|坐标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1164,7 +1204,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1224,6 +1264,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1502,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1517,20 +1566,21 @@
     <col min="7" max="7" width="15.875" customWidth="1"/>
     <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="74.125" style="16" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="21.125" customWidth="1"/>
-    <col min="15" max="15" width="25.125" customWidth="1"/>
-    <col min="16" max="16" width="23.75" customWidth="1"/>
-    <col min="17" max="17" width="21.75" customWidth="1"/>
-    <col min="18" max="19" width="24.25" customWidth="1"/>
-    <col min="20" max="20" width="21.125" customWidth="1"/>
-    <col min="21" max="24" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="16.75" style="24" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="74.125" style="16" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="15" max="15" width="21.125" customWidth="1"/>
+    <col min="16" max="16" width="25.125" customWidth="1"/>
+    <col min="17" max="17" width="23.75" customWidth="1"/>
+    <col min="18" max="18" width="21.75" customWidth="1"/>
+    <col min="19" max="20" width="24.25" customWidth="1"/>
+    <col min="21" max="21" width="21.125" customWidth="1"/>
+    <col min="22" max="25" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1556,17 +1606,20 @@
       <c r="I1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1593,18 +1646,19 @@
       <c r="I2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="23"/>
+      <c r="K2" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="M2" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1631,18 +1685,19 @@
       <c r="I3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="23"/>
+      <c r="K3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="M3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1669,18 +1724,21 @@
       <c r="I4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="L4" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="M4" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1707,18 +1765,21 @@
       <c r="I5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="L5" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="M5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1745,18 +1806,21 @@
       <c r="I6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="L6" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="M6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1783,18 +1847,21 @@
       <c r="I7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="K7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="L7" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1821,18 +1888,21 @@
       <c r="I8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="K8" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="L8" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="M8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1859,19 +1929,20 @@
       <c r="I9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="23"/>
+      <c r="K9" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="L9" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="M9" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="8"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1898,18 +1969,21 @@
       <c r="I10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="L10" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="M10" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1936,18 +2010,19 @@
       <c r="I11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="23"/>
+      <c r="K11" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="L11" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="M11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1974,19 +2049,20 @@
       <c r="I12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="23"/>
+      <c r="K12" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="L12" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="M12" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="8"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2013,19 +2089,22 @@
       <c r="I13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="L13" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="L13" s="18" t="s">
+      <c r="M13" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="8"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2052,18 +2131,19 @@
       <c r="I14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="23"/>
+      <c r="K14" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="L14" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="M14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2090,18 +2170,21 @@
       <c r="I15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="L15" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="M15" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2128,18 +2211,21 @@
       <c r="I16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="K16" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="L16" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="M16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2161,24 +2247,27 @@
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="L17" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="L17" s="18" t="s">
+      <c r="M17" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="8"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N17" s="8"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2204,18 +2293,19 @@
       <c r="I18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="23"/>
+      <c r="K18" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="L18" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="L18" s="18" t="s">
+      <c r="M18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2241,18 +2331,21 @@
       <c r="I19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="L19" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="L19" s="18" t="s">
+      <c r="M19" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2278,18 +2371,19 @@
       <c r="I20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="23"/>
+      <c r="K20" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="L20" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="L20" s="18" t="s">
+      <c r="M20" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2315,26 +2409,29 @@
       <c r="I21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="K21" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="L21" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="M21" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="7"/>
+      <c r="N21" s="8"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="6"/>
+      <c r="P21" s="7"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="2"/>
+      <c r="R21" s="6"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2360,25 +2457,26 @@
       <c r="I22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="23"/>
+      <c r="K22" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="L22" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="L22" s="18" t="s">
+      <c r="M22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="6"/>
+      <c r="P22" s="7"/>
       <c r="Q22" s="6"/>
-      <c r="R22" s="2"/>
+      <c r="R22" s="6"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2404,25 +2502,28 @@
       <c r="I23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="K23" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="L23" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="L23" s="18" t="s">
+      <c r="M23" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="6"/>
+      <c r="P23" s="7"/>
       <c r="Q23" s="6"/>
-      <c r="R23" s="2"/>
+      <c r="R23" s="6"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="2"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2443,30 +2544,31 @@
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="23"/>
+      <c r="K24" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="L24" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="M24" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="6"/>
+      <c r="P24" s="7"/>
       <c r="Q24" s="6"/>
-      <c r="R24" s="2"/>
+      <c r="R24" s="6"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2492,25 +2594,28 @@
       <c r="I25" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="K25" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="L25" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L25" s="18" t="s">
+      <c r="M25" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="6"/>
+      <c r="P25" s="7"/>
       <c r="Q25" s="6"/>
-      <c r="R25" s="2"/>
+      <c r="R25" s="6"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2536,25 +2641,26 @@
       <c r="I26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="23"/>
+      <c r="K26" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="L26" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="L26" s="18" t="s">
+      <c r="M26" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="2"/>
+      <c r="P26" s="7"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2580,26 +2686,27 @@
       <c r="I27" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="23"/>
+      <c r="K27" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="L27" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="M27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M27" s="8"/>
-      <c r="N27" s="7"/>
+      <c r="N27" s="8"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="2"/>
+      <c r="P27" s="7"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2625,16 +2732,18 @@
       <c r="I28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="K28" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="L28" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="L28" s="18" t="s">
+      <c r="M28" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -2642,8 +2751,9 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="2"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2669,18 +2779,21 @@
       <c r="I29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="K29" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="L29" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="L29" s="18" t="s">
+      <c r="M29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2706,16 +2819,16 @@
       <c r="I30" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="23"/>
+      <c r="K30" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="L30" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="L30" s="16" t="s">
+      <c r="M30" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -2723,8 +2836,9 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="2"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2750,16 +2864,16 @@
       <c r="I31" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="23"/>
+      <c r="K31" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="L31" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="L31" s="18" t="s">
+      <c r="M31" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -2767,8 +2881,9 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="2"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2794,17 +2909,18 @@
       <c r="I32" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="23"/>
+      <c r="K32" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="K32" s="12" t="s">
+      <c r="L32" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="L32" s="18" t="s">
+      <c r="M32" s="18" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2830,17 +2946,18 @@
       <c r="I33" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="23"/>
+      <c r="K33" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="K33" s="12" t="s">
+      <c r="L33" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="L33" s="18" t="s">
+      <c r="M33" s="18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2866,17 +2983,18 @@
       <c r="I34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="23"/>
+      <c r="K34" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="K34" s="12" t="s">
+      <c r="L34" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L34" s="18" t="s">
+      <c r="M34" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2902,17 +3020,18 @@
       <c r="I35" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="23"/>
+      <c r="K35" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="K35" s="12" t="s">
+      <c r="L35" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="L35" s="18" t="s">
+      <c r="M35" s="18" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2938,17 +3057,18 @@
       <c r="I36" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="23"/>
+      <c r="K36" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="K36" s="12" t="s">
+      <c r="L36" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="L36" s="18" t="s">
+      <c r="M36" s="18" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2974,17 +3094,20 @@
       <c r="I37" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="K37" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="K37" s="12" t="s">
+      <c r="L37" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="L37" s="18" t="s">
+      <c r="M37" s="18" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3008,17 +3131,18 @@
       <c r="I38" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="23"/>
+      <c r="K38" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="K38" s="12" t="s">
+      <c r="L38" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="L38" s="18" t="s">
+      <c r="M38" s="18" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3039,22 +3163,25 @@
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="5">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="K39" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="K39" s="12" t="s">
+      <c r="L39" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L39" s="20" t="s">
+      <c r="M39" s="20" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3080,17 +3207,18 @@
       <c r="I40" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="23"/>
+      <c r="K40" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="K40" s="12" t="s">
+      <c r="L40" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="L40" s="18" t="s">
+      <c r="M40" s="18" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3116,17 +3244,18 @@
       <c r="I41" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="23"/>
+      <c r="K41" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="K41" s="12" t="s">
+      <c r="L41" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="L41" s="18" t="s">
+      <c r="M41" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3152,17 +3281,18 @@
       <c r="I42" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="23"/>
+      <c r="K42" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="K42" s="12" t="s">
+      <c r="L42" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="L42" s="18" t="s">
+      <c r="M42" s="18" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3186,17 +3316,18 @@
       <c r="I43" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J43" s="11" t="s">
+      <c r="J43" s="23"/>
+      <c r="K43" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="K43" s="12" t="s">
+      <c r="L43" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="L43" s="18" t="s">
+      <c r="M43" s="18" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3222,18 +3353,19 @@
       <c r="I44" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J44" s="11" t="s">
+      <c r="J44" s="23"/>
+      <c r="K44" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="K44" s="12" t="s">
+      <c r="L44" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="L44" s="18" t="s">
+      <c r="M44" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="M44" s="18"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="18"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3257,17 +3389,18 @@
       <c r="I45" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="23"/>
+      <c r="K45" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="K45" s="12" t="s">
+      <c r="L45" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="L45" s="18" t="s">
+      <c r="M45" s="18" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3291,17 +3424,18 @@
       <c r="I46" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J46" s="11" t="s">
+      <c r="J46" s="23"/>
+      <c r="K46" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="K46" s="12" t="s">
+      <c r="L46" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="L46" s="18" t="s">
+      <c r="M46" s="18" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3327,18 +3461,19 @@
       <c r="I47" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J47" s="11" t="s">
+      <c r="J47" s="23"/>
+      <c r="K47" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="K47" s="12" t="s">
+      <c r="L47" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="L47" s="19" t="s">
+      <c r="M47" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="M47" s="8"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="8"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3364,17 +3499,18 @@
       <c r="I48" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="23"/>
+      <c r="K48" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="K48" s="12" t="s">
+      <c r="L48" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="L48" s="18" t="s">
+      <c r="M48" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3400,17 +3536,18 @@
       <c r="I49" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="23"/>
+      <c r="K49" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="K49" s="12" t="s">
+      <c r="L49" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="L49" s="18" t="s">
+      <c r="M49" s="18" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3431,22 +3568,23 @@
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="5">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="23"/>
+      <c r="K50" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="K50" s="12" t="s">
+      <c r="L50" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="L50" s="18" t="s">
+      <c r="M50" s="18" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3470,11 +3608,12 @@
       <c r="I51" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J51" s="11"/>
-      <c r="K51" s="10" t="s">
+      <c r="J51" s="23"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="L51" s="18" t="s">
+      <c r="M51" s="18" t="s">
         <v>40</v>
       </c>
     </row>

--- a/config_Release/fish3d_map_config.xlsx
+++ b/config_Release/fish3d_map_config.xlsx
@@ -19,15 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="278">
   <si>
     <t>line|行号</t>
   </si>
   <si>
     <t>order|排序字段，小的排前面</t>
-  </si>
-  <si>
-    <t>tag|标签类型1黄金鱼，2特殊属性，3普通鱼</t>
   </si>
   <si>
     <t>icon|icon图片</t>
@@ -641,424 +638,416 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>远古龙龟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80~100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自称素食主义者，喜欢品尝海草和藏在海草里的小鱼。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海中神奇的鱼种，难以捕获。被捕获后，可发射“穿云火箭”贯穿全渔场，威力不同凡响。</t>
+  </si>
+  <si>
+    <t>手持宝箱，被捕捉后触发“金币大转盘”，可获得高倍金币奖励。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>常说是海中的小公主。</t>
+  </si>
+  <si>
+    <t>身型小巧，自认为很可爱。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击性很强，一旦加起速没有谁能把他拦住。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子鱼对于任何事物似乎都不感兴趣，当然这只有在他吃饱以后。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏鳄鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱收集宝藏的他，浑身都是宝，让世人垂延三尺。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说中的瑞兽，象征着吉祥和尊贵。捕获后最高可获得500倍奖励。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜骰子大小，每次均可翻倍获得奖励！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>称霸深海万年的远古水母，是个可以呼风唤雨的大人物。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩的外表下蕴藏着气动山河的力量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自远古的麒麟兽，拥有摧毁一切的力量，你能击败它吗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉睡千年的龙王，可将万物化为灰烬。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神是掌管金钱与财富的神明，寄托着大吉大利，发大财的美好心愿。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的金龙转盘，捕捉后会触发3个“连环转盘”。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总是成群结队，喜欢躲在草里玩捉迷藏。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可上天入海，见首不见尾。行事十分低调，关于他的传奇故事数不胜数。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>个头比较大，口头禅是人生苦短，常模仿金蟾打扮自己</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>比起成群结队的小河豚，黄金河豚更喜欢孤单。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D084</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>八爪海魔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu28</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu36</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu31</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu48</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu34</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu33</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu35</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu46</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu45</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu57</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu51</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu21</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu52</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu53</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu54</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu55</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu56</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu49</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu38</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu58</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu41</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu39</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu44</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高400倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高300倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高1000倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高1000倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>强击蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获强击蟹，会触发20秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu27</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu37</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_bg_ywdj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>turntable_ywdj_3d</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多倍奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~80倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~120倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~120倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~160倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高300倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高200倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高600倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高500倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高500倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高600倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高800倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异的巨型乌贼，触手的拍击可以将万物粉碎。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>4,5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>远古龙龟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80~100倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>自称素食主义者，喜欢品尝海草和藏在海草里的小鱼。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海中神奇的鱼种，难以捕获。被捕获后，可发射“穿云火箭”贯穿全渔场，威力不同凡响。</t>
-  </si>
-  <si>
-    <t>手持宝箱，被捕捉后触发“金币大转盘”，可获得高倍金币奖励。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>常说是海中的小公主。</t>
-  </si>
-  <si>
-    <t>身型小巧，自认为很可爱。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击性很强，一旦加起速没有谁能把他拦住。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子鱼对于任何事物似乎都不感兴趣，当然这只有在他吃饱以后。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝藏鳄鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱收集宝藏的他，浑身都是宝，让世人垂延三尺。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>传说中的瑞兽，象征着吉祥和尊贵。捕获后最高可获得500倍奖励。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>猜骰子大小，每次均可翻倍获得奖励！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>称霸深海万年的远古水母，是个可以呼风唤雨的大人物。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔岩的外表下蕴藏着气动山河的力量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自远古的麒麟兽，拥有摧毁一切的力量，你能击败它吗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉睡千年的龙王，可将万物化为灰烬。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神是掌管金钱与财富的神明，寄托着大吉大利，发大财的美好心愿。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘的金龙转盘，捕捉后会触发3个“连环转盘”。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>总是成群结队，喜欢躲在草里玩捉迷藏。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可上天入海，见首不见尾。行事十分低调，关于他的传奇故事数不胜数。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>个头比较大，口头禅是人生苦短，常模仿金蟾打扮自己</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>比起成群结队的小河豚，黄金河豚更喜欢孤单。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D084</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>八爪海魔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu28</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu36</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu31</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu48</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu34</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu33</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu35</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu46</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu45</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu57</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu22</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu25</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu51</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu21</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu52</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu53</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu54</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu55</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu56</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu49</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu38</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu58</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu41</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu39</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu44</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高400倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高300倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高1000倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高1000倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>强击蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获强击蟹，会触发20秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu40</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu27</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu37</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_bg_ywdj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>turntable_ywdj_3d</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>4,5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>5,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>多倍奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60~80倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60~100倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60~120倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100~120倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100~160倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高300倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高200倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高600倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高500倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高500倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高600倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高800倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异的巨型乌贼，触手的拍击可以将万物粉碎。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>-1.6,-2.5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1096,6 +1085,38 @@
   </si>
   <si>
     <t>0,-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hfy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D089</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>背负话费的特殊鱼类，击杀后有概率获得话费碎片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50-100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag|标签类型1普通鱼，2黄金鱼，3活动鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1551,10 +1572,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1588,35 +1611,35 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -1631,30 +1654,30 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="5">
         <v>8</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="23"/>
       <c r="K2" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -1670,30 +1693,30 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="5">
         <v>8</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3" s="23"/>
       <c r="K3" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O3" s="2"/>
     </row>
@@ -1709,32 +1732,32 @@
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="5">
         <v>8</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O4" s="2"/>
     </row>
@@ -1750,32 +1773,32 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="5">
         <v>5</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O5" s="2"/>
     </row>
@@ -1791,32 +1814,32 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="5">
         <v>8</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O6" s="2"/>
     </row>
@@ -1832,32 +1855,32 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="5">
         <v>5</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O7" s="2"/>
     </row>
@@ -1873,32 +1896,32 @@
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="5">
         <v>5</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" s="2"/>
     </row>
@@ -1914,30 +1937,30 @@
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="5">
         <v>5</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="23"/>
       <c r="K9" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="2"/>
@@ -1954,32 +1977,32 @@
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="5">
         <v>5</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O10" s="2"/>
     </row>
@@ -1995,30 +2018,30 @@
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="5">
         <v>5</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O11" s="2"/>
     </row>
@@ -2034,30 +2057,30 @@
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="5">
         <v>4</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12" s="23"/>
       <c r="K12" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="2"/>
@@ -2074,32 +2097,32 @@
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="5">
         <v>5</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="2"/>
@@ -2116,30 +2139,30 @@
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="5">
         <v>5</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J14" s="23"/>
       <c r="K14" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O14" s="2"/>
     </row>
@@ -2155,32 +2178,32 @@
         <v>1</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="5">
         <v>4</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O15" s="2"/>
     </row>
@@ -2196,32 +2219,32 @@
         <v>1</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="5">
         <v>4</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O16" s="2"/>
     </row>
@@ -2237,32 +2260,32 @@
         <v>1</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="5">
         <v>3</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="2"/>
@@ -2278,30 +2301,30 @@
         <v>1</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="5">
         <v>3</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J18" s="23"/>
       <c r="K18" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M18" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O18" s="2"/>
     </row>
@@ -2316,32 +2339,32 @@
         <v>1</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="5">
         <v>3</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O19" s="2"/>
     </row>
@@ -2356,30 +2379,30 @@
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="5">
         <v>3</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J20" s="23"/>
       <c r="K20" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O20" s="2"/>
     </row>
@@ -2394,32 +2417,32 @@
         <v>2</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="5">
         <v>2</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N21" s="8"/>
       <c r="O21" s="7"/>
@@ -2442,30 +2465,30 @@
         <v>3</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="5">
         <v>2</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -2487,32 +2510,32 @@
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="5">
         <v>2</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -2534,30 +2557,30 @@
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="5">
         <v>3</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -2579,32 +2602,32 @@
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="5">
         <v>3</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -2626,30 +2649,30 @@
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="5">
         <v>3</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J26" s="23"/>
       <c r="K26" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -2671,30 +2694,30 @@
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="5">
         <v>3</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N27" s="8"/>
       <c r="O27" s="7"/>
@@ -2717,32 +2740,32 @@
         <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="5">
         <v>2</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -2764,32 +2787,32 @@
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="5">
         <v>3</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O29" s="2"/>
     </row>
@@ -2804,30 +2827,30 @@
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="5">
         <v>3</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J30" s="23"/>
       <c r="K30" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -2849,30 +2872,30 @@
         <v>3</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="5">
         <v>3</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J31" s="23"/>
       <c r="K31" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M31" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -2894,30 +2917,30 @@
         <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="5">
         <v>3</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J32" s="23"/>
       <c r="K32" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -2931,10 +2954,10 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>158</v>
@@ -2944,17 +2967,17 @@
         <v>3</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J33" s="23"/>
       <c r="K33" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -2968,30 +2991,30 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="5">
         <v>2</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J34" s="23"/>
       <c r="K34" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M34" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -3005,30 +3028,30 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="5">
         <v>3</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J35" s="23"/>
       <c r="K35" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -3042,30 +3065,30 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="5">
         <v>3</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J36" s="23"/>
       <c r="K36" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -3079,32 +3102,32 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="5">
         <v>3</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -3118,10 +3141,10 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -3129,17 +3152,17 @@
         <v>3</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J38" s="23"/>
       <c r="K38" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -3153,32 +3176,32 @@
         <v>2</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="5">
         <v>0.5</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -3192,30 +3215,30 @@
         <v>2</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="5">
         <v>3</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J40" s="23"/>
       <c r="K40" s="11" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -3229,30 +3252,30 @@
         <v>2</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="5">
         <v>0.5</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J41" s="23"/>
       <c r="K41" s="11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -3266,30 +3289,30 @@
         <v>2</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="5">
         <v>2</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J42" s="23"/>
       <c r="K42" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M42" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -3303,10 +3326,10 @@
         <v>2</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
@@ -3314,17 +3337,17 @@
         <v>3</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J43" s="23"/>
       <c r="K43" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M43" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -3338,30 +3361,30 @@
         <v>2</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="5">
         <v>1.5</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J44" s="23"/>
       <c r="K44" s="11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M44" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N44" s="18"/>
     </row>
@@ -3376,10 +3399,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
@@ -3387,17 +3410,17 @@
         <v>1</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J45" s="23"/>
       <c r="K45" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M45" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -3411,10 +3434,10 @@
         <v>2</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -3422,17 +3445,17 @@
         <v>1</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J46" s="23"/>
       <c r="K46" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M46" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -3446,30 +3469,30 @@
         <v>2</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="5">
         <v>2</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J47" s="23"/>
       <c r="K47" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M47" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N47" s="8"/>
     </row>
@@ -3484,30 +3507,30 @@
         <v>2</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="5">
         <v>1</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J48" s="23"/>
       <c r="K48" s="11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M48" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -3521,30 +3544,30 @@
         <v>2</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="5">
         <v>1</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J49" s="23"/>
       <c r="K49" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M49" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -3558,30 +3581,30 @@
         <v>2</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="5">
         <v>3</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J50" s="23"/>
       <c r="K50" s="11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M50" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -3595,10 +3618,10 @@
         <v>3</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -3606,15 +3629,52 @@
         <v>2</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J51" s="23"/>
       <c r="K51" s="11"/>
       <c r="L51" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M51" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2">
+        <v>51</v>
+      </c>
+      <c r="C52" s="3">
+        <v>3</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="G52" s="11"/>
+      <c r="H52" s="5">
+        <v>4</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J52" s="23"/>
+      <c r="K52" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="M52" s="18" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish3d_map_config.xlsx
+++ b/config_Release/fish3d_map_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="279">
   <si>
     <t>line|行号</t>
   </si>
@@ -638,481 +638,485 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>远古龙龟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80~100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自称素食主义者，喜欢品尝海草和藏在海草里的小鱼。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海中神奇的鱼种，难以捕获。被捕获后，可发射“穿云火箭”贯穿全渔场，威力不同凡响。</t>
+  </si>
+  <si>
+    <t>手持宝箱，被捕捉后触发“金币大转盘”，可获得高倍金币奖励。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>常说是海中的小公主。</t>
+  </si>
+  <si>
+    <t>身型小巧，自认为很可爱。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击性很强，一旦加起速没有谁能把他拦住。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子鱼对于任何事物似乎都不感兴趣，当然这只有在他吃饱以后。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏鳄鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱收集宝藏的他，浑身都是宝，让世人垂延三尺。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说中的瑞兽，象征着吉祥和尊贵。捕获后最高可获得500倍奖励。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜骰子大小，每次均可翻倍获得奖励！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>称霸深海万年的远古水母，是个可以呼风唤雨的大人物。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩的外表下蕴藏着气动山河的力量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自远古的麒麟兽，拥有摧毁一切的力量，你能击败它吗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉睡千年的龙王，可将万物化为灰烬。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神是掌管金钱与财富的神明，寄托着大吉大利，发大财的美好心愿。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的金龙转盘，捕捉后会触发3个“连环转盘”。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总是成群结队，喜欢躲在草里玩捉迷藏。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可上天入海，见首不见尾。行事十分低调，关于他的传奇故事数不胜数。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>个头比较大，口头禅是人生苦短，常模仿金蟾打扮自己</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>比起成群结队的小河豚，黄金河豚更喜欢孤单。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D084</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>八爪海魔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu28</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu36</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu31</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu48</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu34</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu33</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu35</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu46</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu45</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu57</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu51</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu21</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu52</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu53</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu54</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu55</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu56</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu49</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu38</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu58</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu41</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu39</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu44</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高400倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高300倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高1000倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高1000倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>强击蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获强击蟹，会触发20秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu27</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu37</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_bg_ywdj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>turntable_ywdj_3d</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多倍奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~80倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~120倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~120倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~160倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高300倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高200倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高600倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高500倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高500倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高600倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高800倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异的巨型乌贼，触手的拍击可以将万物粉碎。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>3,4,5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.6,-2.5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2.6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5,50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos|坐标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hfy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D089</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>背负话费的特殊鱼类，击杀后有概率获得话费碎片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50-100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag|标签类型1普通鱼，2黄金鱼，3活动鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>2,3,4,5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>远古龙龟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80~100倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>自称素食主义者，喜欢品尝海草和藏在海草里的小鱼。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海中神奇的鱼种，难以捕获。被捕获后，可发射“穿云火箭”贯穿全渔场，威力不同凡响。</t>
-  </si>
-  <si>
-    <t>手持宝箱，被捕捉后触发“金币大转盘”，可获得高倍金币奖励。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>常说是海中的小公主。</t>
-  </si>
-  <si>
-    <t>身型小巧，自认为很可爱。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击性很强，一旦加起速没有谁能把他拦住。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子鱼对于任何事物似乎都不感兴趣，当然这只有在他吃饱以后。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝藏鳄鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱收集宝藏的他，浑身都是宝，让世人垂延三尺。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>传说中的瑞兽，象征着吉祥和尊贵。捕获后最高可获得500倍奖励。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>猜骰子大小，每次均可翻倍获得奖励！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>称霸深海万年的远古水母，是个可以呼风唤雨的大人物。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔岩的外表下蕴藏着气动山河的力量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自远古的麒麟兽，拥有摧毁一切的力量，你能击败它吗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉睡千年的龙王，可将万物化为灰烬。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神是掌管金钱与财富的神明，寄托着大吉大利，发大财的美好心愿。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘的金龙转盘，捕捉后会触发3个“连环转盘”。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>总是成群结队，喜欢躲在草里玩捉迷藏。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可上天入海，见首不见尾。行事十分低调，关于他的传奇故事数不胜数。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>个头比较大，口头禅是人生苦短，常模仿金蟾打扮自己</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>比起成群结队的小河豚，黄金河豚更喜欢孤单。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D084</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>八爪海魔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu28</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu36</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu31</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu48</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu34</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu33</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu35</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu46</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu45</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu57</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu22</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu25</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu51</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu21</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu52</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu53</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu54</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu55</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu56</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu49</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu38</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu58</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu41</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu39</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu44</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高400倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高300倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高1000倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高1000倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>强击蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获强击蟹，会触发20秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu40</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu27</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu37</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_bg_ywdj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>turntable_ywdj_3d</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>多倍奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60~80倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60~100倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60~120倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100~120倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100~160倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高300倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高200倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高600倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高500倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高500倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高600倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高800倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异的巨型乌贼，触手的拍击可以将万物粉碎。</t>
+    <t>2,3,4,5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1.6,-2.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2.6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5,50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pos|坐标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_iocn_hfy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>话费鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D089</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>背负话费的特殊鱼类，击杀后有概率获得话费碎片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50-100倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag|标签类型1普通鱼，2黄金鱼，3活动鱼</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1577,7 +1581,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="E29:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1611,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1630,7 +1634,7 @@
         <v>41</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -1654,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>75</v>
@@ -1677,7 +1681,7 @@
         <v>89</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -1693,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>47</v>
@@ -1748,7 +1752,7 @@
         <v>40</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>31</v>
@@ -1757,7 +1761,7 @@
         <v>91</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O4" s="2"/>
     </row>
@@ -1773,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>48</v>
@@ -1789,7 +1793,7 @@
         <v>40</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>136</v>
@@ -1814,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>49</v>
@@ -1830,7 +1834,7 @@
         <v>40</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>33</v>
@@ -1855,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>9</v>
@@ -1871,7 +1875,7 @@
         <v>40</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>34</v>
@@ -1880,7 +1884,7 @@
         <v>94</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O7" s="2"/>
     </row>
@@ -1896,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>50</v>
@@ -1912,7 +1916,7 @@
         <v>40</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>137</v>
@@ -1937,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>51</v>
@@ -1960,7 +1964,7 @@
         <v>96</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="2"/>
@@ -1977,7 +1981,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>52</v>
@@ -1993,7 +1997,7 @@
         <v>42</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>139</v>
@@ -2002,7 +2006,7 @@
         <v>97</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O10" s="2"/>
     </row>
@@ -2018,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>76</v>
@@ -2057,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>77</v>
@@ -2080,7 +2084,7 @@
         <v>99</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="2"/>
@@ -2097,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>53</v>
@@ -2113,7 +2117,7 @@
         <v>40</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>36</v>
@@ -2122,7 +2126,7 @@
         <v>100</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="2"/>
@@ -2139,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>78</v>
@@ -2194,7 +2198,7 @@
         <v>40</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>143</v>
@@ -2203,7 +2207,7 @@
         <v>102</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O15" s="2"/>
     </row>
@@ -2235,7 +2239,7 @@
         <v>40</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>144</v>
@@ -2276,7 +2280,7 @@
         <v>40</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>35</v>
@@ -2355,7 +2359,7 @@
         <v>40</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>146</v>
@@ -2379,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>10</v>
@@ -2417,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>81</v>
@@ -2433,10 +2437,10 @@
         <v>40</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L21" s="12" t="s">
         <v>108</v>
@@ -2465,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>55</v>
@@ -2510,13 +2514,13 @@
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>82</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="5">
@@ -2526,16 +2530,16 @@
         <v>40</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L23" s="12" t="s">
         <v>110</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -2557,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>83</v>
@@ -2574,13 +2578,13 @@
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L24" s="12" t="s">
         <v>111</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -2602,13 +2606,13 @@
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>56</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="5">
@@ -2618,16 +2622,16 @@
         <v>40</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L25" s="12" t="s">
         <v>112</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -2649,13 +2653,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="5">
@@ -2666,7 +2670,7 @@
       </c>
       <c r="J26" s="23"/>
       <c r="K26" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>113</v>
@@ -2694,7 +2698,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>58</v>
@@ -2711,7 +2715,7 @@
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L27" s="12" t="s">
         <v>114</v>
@@ -2740,13 +2744,13 @@
         <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="5">
@@ -2756,16 +2760,16 @@
         <v>40</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L28" s="12" t="s">
         <v>115</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -2787,7 +2791,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>149</v>
@@ -2803,7 +2807,7 @@
         <v>40</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K29" s="11" t="s">
         <v>147</v>
@@ -2827,7 +2831,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>60</v>
@@ -2850,7 +2854,7 @@
         <v>117</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -2872,13 +2876,13 @@
         <v>3</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>61</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="5">
@@ -2917,13 +2921,13 @@
         <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>158</v>
+        <v>275</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="5">
@@ -2940,7 +2944,7 @@
         <v>119</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -2954,13 +2958,13 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>63</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>158</v>
+        <v>276</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="5">
@@ -2977,7 +2981,7 @@
         <v>120</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -2991,13 +2995,13 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>84</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>158</v>
+        <v>276</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="5">
@@ -3028,13 +3032,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>85</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>157</v>
+        <v>277</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="5">
@@ -3051,7 +3055,7 @@
         <v>121</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -3065,13 +3069,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="5">
@@ -3088,7 +3092,7 @@
         <v>122</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -3102,13 +3106,13 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>86</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="5">
@@ -3118,7 +3122,7 @@
         <v>42</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K37" s="11" t="s">
         <v>147</v>
@@ -3127,7 +3131,7 @@
         <v>123</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -3141,7 +3145,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>66</v>
@@ -3162,7 +3166,7 @@
         <v>124</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -3176,7 +3180,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>87</v>
@@ -3192,16 +3196,16 @@
         <v>42</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L39" s="12" t="s">
         <v>13</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -3215,13 +3219,13 @@
         <v>2</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>43</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="5">
@@ -3232,13 +3236,13 @@
       </c>
       <c r="J40" s="23"/>
       <c r="K40" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>125</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -3252,7 +3256,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>88</v>
@@ -3269,7 +3273,7 @@
       </c>
       <c r="J41" s="23"/>
       <c r="K41" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>126</v>
@@ -3289,7 +3293,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>67</v>
@@ -3306,13 +3310,13 @@
       </c>
       <c r="J42" s="23"/>
       <c r="K42" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>127</v>
       </c>
       <c r="M42" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -3326,7 +3330,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>68</v>
@@ -3341,13 +3345,13 @@
       </c>
       <c r="J43" s="23"/>
       <c r="K43" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L43" s="12" t="s">
         <v>128</v>
       </c>
       <c r="M43" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -3361,10 +3365,10 @@
         <v>2</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>155</v>
@@ -3378,13 +3382,13 @@
       </c>
       <c r="J44" s="23"/>
       <c r="K44" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L44" s="12" t="s">
         <v>129</v>
       </c>
       <c r="M44" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N44" s="18"/>
     </row>
@@ -3399,7 +3403,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>70</v>
@@ -3414,13 +3418,13 @@
       </c>
       <c r="J45" s="23"/>
       <c r="K45" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L45" s="12" t="s">
         <v>130</v>
       </c>
       <c r="M45" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -3434,7 +3438,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>71</v>
@@ -3449,13 +3453,13 @@
       </c>
       <c r="J46" s="23"/>
       <c r="K46" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L46" s="12" t="s">
         <v>131</v>
       </c>
       <c r="M46" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -3469,7 +3473,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>72</v>
@@ -3486,13 +3490,13 @@
       </c>
       <c r="J47" s="23"/>
       <c r="K47" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L47" s="12" t="s">
         <v>132</v>
       </c>
       <c r="M47" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N47" s="8"/>
     </row>
@@ -3507,7 +3511,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>74</v>
@@ -3524,7 +3528,7 @@
       </c>
       <c r="J48" s="23"/>
       <c r="K48" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L48" s="12" t="s">
         <v>133</v>
@@ -3544,10 +3548,10 @@
         <v>2</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>150</v>
@@ -3561,13 +3565,13 @@
       </c>
       <c r="J49" s="23"/>
       <c r="K49" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L49" s="12" t="s">
         <v>134</v>
       </c>
       <c r="M49" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -3581,10 +3585,10 @@
         <v>2</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>156</v>
@@ -3598,13 +3602,13 @@
       </c>
       <c r="J50" s="23"/>
       <c r="K50" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M50" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -3618,7 +3622,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>38</v>
@@ -3634,7 +3638,7 @@
       <c r="J51" s="23"/>
       <c r="K51" s="11"/>
       <c r="L51" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M51" s="18" t="s">
         <v>39</v>
@@ -3651,13 +3655,13 @@
         <v>3</v>
       </c>
       <c r="D52" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>270</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>272</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="5">
@@ -3668,13 +3672,13 @@
       </c>
       <c r="J52" s="23"/>
       <c r="K52" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M52" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish3d_map_config.xlsx
+++ b/config_Release/fish3d_map_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="278">
   <si>
     <t>line|行号</t>
   </si>
@@ -638,6 +638,18 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>远古龙龟</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1105,22 +1117,6 @@
   </si>
   <si>
     <t>tag|标签类型1普通鱼，2黄金鱼，3活动鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1581,7 +1577,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="E29:F37"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1615,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1634,7 +1630,7 @@
         <v>41</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -1658,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>75</v>
@@ -1681,7 +1677,7 @@
         <v>89</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -1697,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>47</v>
@@ -1752,7 +1748,7 @@
         <v>40</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>31</v>
@@ -1761,7 +1757,7 @@
         <v>91</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O4" s="2"/>
     </row>
@@ -1777,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>48</v>
@@ -1793,7 +1789,7 @@
         <v>40</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>136</v>
@@ -1818,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>49</v>
@@ -1834,7 +1830,7 @@
         <v>40</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>33</v>
@@ -1859,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>9</v>
@@ -1875,7 +1871,7 @@
         <v>40</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>34</v>
@@ -1884,7 +1880,7 @@
         <v>94</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="O7" s="2"/>
     </row>
@@ -1900,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>50</v>
@@ -1916,7 +1912,7 @@
         <v>40</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>137</v>
@@ -1941,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>51</v>
@@ -1964,7 +1960,7 @@
         <v>96</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="2"/>
@@ -1981,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>52</v>
@@ -1997,7 +1993,7 @@
         <v>42</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>139</v>
@@ -2006,7 +2002,7 @@
         <v>97</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O10" s="2"/>
     </row>
@@ -2022,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>76</v>
@@ -2061,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>77</v>
@@ -2084,7 +2080,7 @@
         <v>99</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="2"/>
@@ -2101,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>53</v>
@@ -2117,7 +2113,7 @@
         <v>40</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>36</v>
@@ -2126,7 +2122,7 @@
         <v>100</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="2"/>
@@ -2143,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>78</v>
@@ -2198,7 +2194,7 @@
         <v>40</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>143</v>
@@ -2207,7 +2203,7 @@
         <v>102</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O15" s="2"/>
     </row>
@@ -2239,7 +2235,7 @@
         <v>40</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>144</v>
@@ -2280,7 +2276,7 @@
         <v>40</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>35</v>
@@ -2359,7 +2355,7 @@
         <v>40</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>146</v>
@@ -2383,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>10</v>
@@ -2421,7 +2417,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>81</v>
@@ -2437,10 +2433,10 @@
         <v>40</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L21" s="12" t="s">
         <v>108</v>
@@ -2469,7 +2465,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>55</v>
@@ -2514,13 +2510,13 @@
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>82</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="5">
@@ -2530,16 +2526,16 @@
         <v>40</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L23" s="12" t="s">
         <v>110</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -2561,7 +2557,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>83</v>
@@ -2578,13 +2574,13 @@
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="11" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L24" s="12" t="s">
         <v>111</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -2606,13 +2602,13 @@
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>56</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="5">
@@ -2622,16 +2618,16 @@
         <v>40</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L25" s="12" t="s">
         <v>112</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -2653,13 +2649,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="5">
@@ -2670,7 +2666,7 @@
       </c>
       <c r="J26" s="23"/>
       <c r="K26" s="9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>113</v>
@@ -2698,7 +2694,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>58</v>
@@ -2715,7 +2711,7 @@
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="11" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L27" s="12" t="s">
         <v>114</v>
@@ -2744,13 +2740,13 @@
         <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="5">
@@ -2760,16 +2756,16 @@
         <v>40</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L28" s="12" t="s">
         <v>115</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -2791,7 +2787,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>149</v>
@@ -2807,7 +2803,7 @@
         <v>40</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K29" s="11" t="s">
         <v>147</v>
@@ -2831,7 +2827,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>60</v>
@@ -2854,7 +2850,7 @@
         <v>117</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -2876,7 +2872,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>61</v>
@@ -2921,13 +2917,13 @@
         <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>275</v>
+        <v>159</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="5">
@@ -2944,7 +2940,7 @@
         <v>119</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -2958,13 +2954,13 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>63</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>276</v>
+        <v>159</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="5">
@@ -2981,7 +2977,7 @@
         <v>120</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -2995,13 +2991,13 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>84</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>276</v>
+        <v>159</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="5">
@@ -3032,13 +3028,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>85</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>277</v>
+        <v>158</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="5">
@@ -3055,7 +3051,7 @@
         <v>121</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -3069,13 +3065,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>278</v>
+        <v>157</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="5">
@@ -3092,7 +3088,7 @@
         <v>122</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -3106,13 +3102,13 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>86</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="5">
@@ -3122,7 +3118,7 @@
         <v>42</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K37" s="11" t="s">
         <v>147</v>
@@ -3131,7 +3127,7 @@
         <v>123</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -3145,7 +3141,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>66</v>
@@ -3166,7 +3162,7 @@
         <v>124</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -3180,7 +3176,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>87</v>
@@ -3196,16 +3192,16 @@
         <v>42</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L39" s="12" t="s">
         <v>13</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -3219,13 +3215,13 @@
         <v>2</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>43</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="5">
@@ -3236,13 +3232,13 @@
       </c>
       <c r="J40" s="23"/>
       <c r="K40" s="11" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>125</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -3256,7 +3252,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>88</v>
@@ -3273,7 +3269,7 @@
       </c>
       <c r="J41" s="23"/>
       <c r="K41" s="11" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>126</v>
@@ -3293,7 +3289,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>67</v>
@@ -3310,13 +3306,13 @@
       </c>
       <c r="J42" s="23"/>
       <c r="K42" s="11" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>127</v>
       </c>
       <c r="M42" s="18" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -3330,7 +3326,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>68</v>
@@ -3345,13 +3341,13 @@
       </c>
       <c r="J43" s="23"/>
       <c r="K43" s="11" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L43" s="12" t="s">
         <v>128</v>
       </c>
       <c r="M43" s="18" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -3365,10 +3361,10 @@
         <v>2</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>155</v>
@@ -3382,13 +3378,13 @@
       </c>
       <c r="J44" s="23"/>
       <c r="K44" s="11" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L44" s="12" t="s">
         <v>129</v>
       </c>
       <c r="M44" s="18" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="N44" s="18"/>
     </row>
@@ -3403,7 +3399,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>70</v>
@@ -3418,13 +3414,13 @@
       </c>
       <c r="J45" s="23"/>
       <c r="K45" s="11" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L45" s="12" t="s">
         <v>130</v>
       </c>
       <c r="M45" s="18" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -3438,7 +3434,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>71</v>
@@ -3453,13 +3449,13 @@
       </c>
       <c r="J46" s="23"/>
       <c r="K46" s="11" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L46" s="12" t="s">
         <v>131</v>
       </c>
       <c r="M46" s="18" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -3473,7 +3469,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>72</v>
@@ -3490,13 +3486,13 @@
       </c>
       <c r="J47" s="23"/>
       <c r="K47" s="11" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L47" s="12" t="s">
         <v>132</v>
       </c>
       <c r="M47" s="19" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N47" s="8"/>
     </row>
@@ -3511,7 +3507,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>74</v>
@@ -3528,7 +3524,7 @@
       </c>
       <c r="J48" s="23"/>
       <c r="K48" s="11" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L48" s="12" t="s">
         <v>133</v>
@@ -3548,10 +3544,10 @@
         <v>2</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>150</v>
@@ -3565,13 +3561,13 @@
       </c>
       <c r="J49" s="23"/>
       <c r="K49" s="11" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L49" s="12" t="s">
         <v>134</v>
       </c>
       <c r="M49" s="18" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -3585,10 +3581,10 @@
         <v>2</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>156</v>
@@ -3602,13 +3598,13 @@
       </c>
       <c r="J50" s="23"/>
       <c r="K50" s="11" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M50" s="18" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -3622,7 +3618,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>38</v>
@@ -3638,7 +3634,7 @@
       <c r="J51" s="23"/>
       <c r="K51" s="11"/>
       <c r="L51" s="10" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M51" s="18" t="s">
         <v>39</v>
@@ -3655,13 +3651,13 @@
         <v>3</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="5">
@@ -3672,13 +3668,13 @@
       </c>
       <c r="J52" s="23"/>
       <c r="K52" s="11" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M52" s="18" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish3d_map_config.xlsx
+++ b/config_Release/fish3d_map_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="283">
   <si>
     <t>line|行号</t>
   </si>
@@ -1117,6 +1117,26 @@
   </si>
   <si>
     <t>tag|标签类型1普通鱼，2黄金鱼，3活动鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hby</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3DHB</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每5分钟出现一次，击杀后有极大概率直接获得福利券！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-300倍</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1572,12 +1592,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3677,6 +3697,43 @@
         <v>275</v>
       </c>
     </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2">
+        <v>52</v>
+      </c>
+      <c r="C53" s="3">
+        <v>3</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="G53" s="11"/>
+      <c r="H53" s="5">
+        <v>4</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J53" s="23"/>
+      <c r="K53" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="M53" s="18" t="s">
+        <v>281</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_Release/fish3d_map_config.xlsx
+++ b/config_Release/fish3d_map_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="282">
   <si>
     <t>line|行号</t>
   </si>
@@ -1041,10 +1041,6 @@
   </si>
   <si>
     <t>3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1595,9 +1591,9 @@
   <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1631,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1650,7 +1646,7 @@
         <v>41</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -1768,7 +1764,7 @@
         <v>40</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>31</v>
@@ -1809,7 +1805,7 @@
         <v>40</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>136</v>
@@ -1850,7 +1846,7 @@
         <v>40</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>33</v>
@@ -1891,7 +1887,7 @@
         <v>40</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>34</v>
@@ -1932,7 +1928,7 @@
         <v>40</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>137</v>
@@ -2013,7 +2009,7 @@
         <v>42</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>139</v>
@@ -2133,7 +2129,7 @@
         <v>40</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>36</v>
@@ -2214,7 +2210,7 @@
         <v>40</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>143</v>
@@ -2255,7 +2251,7 @@
         <v>40</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>144</v>
@@ -2296,7 +2292,7 @@
         <v>40</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>35</v>
@@ -2375,7 +2371,7 @@
         <v>40</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>146</v>
@@ -2453,7 +2449,7 @@
         <v>40</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>244</v>
@@ -2546,7 +2542,7 @@
         <v>40</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K23" s="11" t="s">
         <v>245</v>
@@ -2638,7 +2634,7 @@
         <v>40</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K25" s="11" t="s">
         <v>243</v>
@@ -2675,7 +2671,7 @@
         <v>57</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="5">
@@ -2766,7 +2762,7 @@
         <v>44</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="5">
@@ -2776,7 +2772,7 @@
         <v>40</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K28" s="11" t="s">
         <v>248</v>
@@ -2823,7 +2819,7 @@
         <v>40</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K29" s="11" t="s">
         <v>147</v>
@@ -3138,7 +3134,7 @@
         <v>42</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K37" s="11" t="s">
         <v>147</v>
@@ -3212,7 +3208,7 @@
         <v>42</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K39" s="11" t="s">
         <v>249</v>
@@ -3671,13 +3667,13 @@
         <v>3</v>
       </c>
       <c r="D52" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E52" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="F52" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>273</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="5">
@@ -3688,13 +3684,13 @@
       </c>
       <c r="J52" s="23"/>
       <c r="K52" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L52" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="M52" s="18" t="s">
         <v>274</v>
-      </c>
-      <c r="M52" s="18" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -3708,13 +3704,13 @@
         <v>3</v>
       </c>
       <c r="D53" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E53" s="11" t="s">
-        <v>279</v>
-      </c>
       <c r="F53" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="5">
@@ -3725,13 +3721,13 @@
       </c>
       <c r="J53" s="23"/>
       <c r="K53" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L53" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="M53" s="18" t="s">
         <v>280</v>
-      </c>
-      <c r="M53" s="18" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>
